--- a/test.xlsx
+++ b/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ianbaime/Desktop/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8B0418D-0509-1D44-8BD9-82160490BBC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7893293F-AB63-7940-8FE4-3CD546E78CFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2260" yWindow="1380" windowWidth="24500" windowHeight="15580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4420" yWindow="840" windowWidth="24500" windowHeight="15580" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="1" r:id="rId1"/>
@@ -1102,9 +1102,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:E38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="86" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="B1" zoomScale="156" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1234,7 +1234,7 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M15" sqref="M15"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1686,11 +1686,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="C1:J74"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="D42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E66" sqref="E66"/>
+      <selection pane="bottomRight" activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -910,8 +910,8 @@
     <col width="6.6640625" customWidth="1" style="3" min="4" max="4"/>
     <col width="9.1640625" customWidth="1" style="3" min="5" max="10"/>
     <col width="2.5" customWidth="1" style="3" min="11" max="11"/>
-    <col width="9.1640625" customWidth="1" style="3" min="12" max="23"/>
-    <col width="9.1640625" customWidth="1" style="3" min="24" max="16384"/>
+    <col width="9.1640625" customWidth="1" style="3" min="12" max="26"/>
+    <col width="9.1640625" customWidth="1" style="3" min="27" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customFormat="1" customHeight="1" s="54">
@@ -1060,8 +1060,8 @@
     <col width="6.6640625" customWidth="1" style="3" min="4" max="4"/>
     <col width="9.1640625" customWidth="1" style="3" min="5" max="10"/>
     <col width="2.5" customWidth="1" style="3" min="11" max="11"/>
-    <col width="9.1640625" customWidth="1" style="3" min="12" max="23"/>
-    <col width="9.1640625" customWidth="1" style="3" min="24" max="16384"/>
+    <col width="9.1640625" customWidth="1" style="3" min="12" max="26"/>
+    <col width="9.1640625" customWidth="1" style="3" min="27" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customFormat="1" customHeight="1" s="54"/>
@@ -1552,8 +1552,8 @@
     <col width="6.6640625" customWidth="1" style="3" min="4" max="4"/>
     <col width="9.1640625" customWidth="1" style="3" min="5" max="10"/>
     <col width="2.5" customWidth="1" style="3" min="11" max="11"/>
-    <col width="9.1640625" customWidth="1" style="3" min="12" max="23"/>
-    <col width="9.1640625" customWidth="1" style="3" min="24" max="16384"/>
+    <col width="9.1640625" customWidth="1" style="3" min="12" max="26"/>
+    <col width="9.1640625" customWidth="1" style="3" min="27" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customFormat="1" customHeight="1" s="54"/>
@@ -2348,8 +2348,8 @@
     <col width="6.6640625" bestFit="1" customWidth="1" style="3" min="4" max="4"/>
     <col width="9.1640625" customWidth="1" style="3" min="5" max="10"/>
     <col width="2.5" customWidth="1" style="3" min="11" max="11"/>
-    <col width="9.1640625" customWidth="1" style="3" min="12" max="24"/>
-    <col width="9.1640625" customWidth="1" style="3" min="25" max="16384"/>
+    <col width="9.1640625" customWidth="1" style="3" min="12" max="27"/>
+    <col width="9.1640625" customWidth="1" style="3" min="28" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customFormat="1" customHeight="1" s="54"/>
@@ -2846,7 +2846,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J64"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2974,24 +2974,6 @@
           <t>% Margin</t>
         </is>
       </c>
-      <c r="E9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1050</v>
-      </c>
-      <c r="G9" t="n">
-        <v>1102.5</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1157.625</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1215.50625</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1276.2815625</v>
-      </c>
     </row>
     <row r="10" ht="14" customHeight="1">
       <c r="A10" s="68" t="inlineStr">
@@ -2999,24 +2981,6 @@
           <t>SG&amp;A</t>
         </is>
       </c>
-      <c r="E10" t="n">
-        <v>600</v>
-      </c>
-      <c r="F10" t="n">
-        <v>615</v>
-      </c>
-      <c r="G10" t="n">
-        <v>630.375</v>
-      </c>
-      <c r="H10" t="n">
-        <v>646.14375</v>
-      </c>
-      <c r="I10" t="n">
-        <v>662.30859375</v>
-      </c>
-      <c r="J10" t="n">
-        <v>679.0598085937499</v>
-      </c>
     </row>
     <row r="11" ht="14" customHeight="1">
       <c r="A11" s="68" t="inlineStr">
@@ -3024,24 +2988,6 @@
           <t>EBIT (Operating Profit)</t>
         </is>
       </c>
-      <c r="E11" t="n">
-        <v>400</v>
-      </c>
-      <c r="F11" t="n">
-        <v>435</v>
-      </c>
-      <c r="G11" t="n">
-        <v>472.125</v>
-      </c>
-      <c r="H11" t="n">
-        <v>511.48125</v>
-      </c>
-      <c r="I11" t="n">
-        <v>553.19765625</v>
-      </c>
-      <c r="J11" t="n">
-        <v>597.22175390625</v>
-      </c>
     </row>
     <row r="12" ht="14" customHeight="1">
       <c r="A12" s="68" t="inlineStr">
@@ -3049,24 +2995,6 @@
           <t>Interest Income</t>
         </is>
       </c>
-      <c r="E12" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.4142857142857143</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.4277777777777778</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.4405555555555555</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.4527397260273973</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.4643809523809524</v>
-      </c>
     </row>
     <row r="13" ht="14" customHeight="1">
       <c r="A13" s="70" t="inlineStr">
@@ -3081,24 +3009,6 @@
           <t>Profit Before Taxes</t>
         </is>
       </c>
-      <c r="E14" t="n">
-        <v>143</v>
-      </c>
-      <c r="F14" t="n">
-        <v>157.5</v>
-      </c>
-      <c r="G14" t="n">
-        <v>172.3</v>
-      </c>
-      <c r="H14" t="n">
-        <v>187.75</v>
-      </c>
-      <c r="I14" t="n">
-        <v>203.5190625</v>
-      </c>
-      <c r="J14" t="n">
-        <v>221.68951890625</v>
-      </c>
     </row>
     <row r="15" ht="14" customHeight="1">
       <c r="A15" s="70" t="inlineStr">
@@ -3106,24 +3016,6 @@
           <t>Tax Expenses</t>
         </is>
       </c>
-      <c r="E15" t="n">
-        <v>50</v>
-      </c>
-      <c r="F15" t="n">
-        <v>52.5</v>
-      </c>
-      <c r="G15" t="n">
-        <v>55.125</v>
-      </c>
-      <c r="H15" t="n">
-        <v>57.88125</v>
-      </c>
-      <c r="I15" t="n">
-        <v>60.7753125</v>
-      </c>
-      <c r="J15" t="n">
-        <v>63.814078125</v>
-      </c>
     </row>
     <row r="16" ht="14" customHeight="1">
       <c r="A16" s="68" t="inlineStr">
@@ -3131,627 +3023,15 @@
           <t>Net Income</t>
         </is>
       </c>
-      <c r="E16" t="n">
-        <v>50</v>
-      </c>
-      <c r="F16" t="n">
-        <v>52.5</v>
-      </c>
-      <c r="G16" t="n">
-        <v>55.125</v>
-      </c>
-      <c r="H16" t="n">
-        <v>57.88125</v>
-      </c>
-      <c r="I16" t="n">
-        <v>60.7753125</v>
-      </c>
-      <c r="J16" t="n">
-        <v>63.814078125</v>
-      </c>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" s="71" t="n"/>
-      <c r="E17" t="n">
-        <v>12</v>
-      </c>
-      <c r="F17" t="n">
-        <v>13</v>
-      </c>
-      <c r="G17" t="n">
-        <v>14</v>
-      </c>
-      <c r="H17" t="n">
-        <v>15</v>
-      </c>
-      <c r="I17" t="n">
-        <v>16</v>
-      </c>
-      <c r="J17" t="n">
-        <v>17</v>
-      </c>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" s="67" t="n"/>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="19" ht="14" customHeight="1">
       <c r="A19" s="68" t="n"/>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="E20" t="n">
-        <v>181</v>
-      </c>
-      <c r="F20" t="n">
-        <v>193</v>
-      </c>
-      <c r="G20" t="n">
-        <v>211.425</v>
-      </c>
-      <c r="H20" t="n">
-        <v>230.63125</v>
-      </c>
-      <c r="I20" t="n">
-        <v>250.654375</v>
-      </c>
-      <c r="J20" t="n">
-        <v>271.5236015625</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="E21" t="n">
-        <v>205</v>
-      </c>
-      <c r="F21" t="n">
-        <v>224.5</v>
-      </c>
-      <c r="G21" t="n">
-        <v>245.3</v>
-      </c>
-      <c r="H21" t="n">
-        <v>267.75</v>
-      </c>
-      <c r="I21" t="n">
-        <v>291.5190625</v>
-      </c>
-      <c r="J21" t="n">
-        <v>316.68951890625</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="E22" t="n">
-        <v>0.205</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.2138095238095238</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0.2224545454545455</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0.2310869565217391</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0.2395887602627258</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.2479464285714286</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="E24" t="n">
-        <v>62</v>
-      </c>
-      <c r="F24" t="n">
-        <v>67</v>
-      </c>
-      <c r="G24" t="n">
-        <v>73</v>
-      </c>
-      <c r="H24" t="n">
-        <v>80</v>
-      </c>
-      <c r="I24" t="n">
-        <v>88</v>
-      </c>
-      <c r="J24" t="n">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="E26" t="n">
-        <v>143</v>
-      </c>
-      <c r="F26" t="n">
-        <v>157.5</v>
-      </c>
-      <c r="G26" t="n">
-        <v>172.3</v>
-      </c>
-      <c r="H26" t="n">
-        <v>187.75</v>
-      </c>
-      <c r="I26" t="n">
-        <v>203.5190625</v>
-      </c>
-      <c r="J26" t="n">
-        <v>221.68951890625</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="E32" t="n">
-        <v>200</v>
-      </c>
-      <c r="F32" t="n">
-        <v>225</v>
-      </c>
-      <c r="G32" t="n">
-        <v>251</v>
-      </c>
-      <c r="H32" t="n">
-        <v>277</v>
-      </c>
-      <c r="I32" t="n">
-        <v>305</v>
-      </c>
-      <c r="J32" t="n">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="E33" t="n">
-        <v>132</v>
-      </c>
-      <c r="F33" t="n">
-        <v>126</v>
-      </c>
-      <c r="G33" t="n">
-        <v>126</v>
-      </c>
-      <c r="H33" t="n">
-        <v>126</v>
-      </c>
-      <c r="I33" t="n">
-        <v>126</v>
-      </c>
-      <c r="J33" t="n">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="E34" t="n">
-        <v>151</v>
-      </c>
-      <c r="F34" t="n">
-        <v>144</v>
-      </c>
-      <c r="G34" t="n">
-        <v>144</v>
-      </c>
-      <c r="H34" t="n">
-        <v>144</v>
-      </c>
-      <c r="I34" t="n">
-        <v>144</v>
-      </c>
-      <c r="J34" t="n">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="E35" t="n">
-        <v>50</v>
-      </c>
-      <c r="F35" t="n">
-        <v>50</v>
-      </c>
-      <c r="G35" t="n">
-        <v>50</v>
-      </c>
-      <c r="H35" t="n">
-        <v>50</v>
-      </c>
-      <c r="I35" t="n">
-        <v>50</v>
-      </c>
-      <c r="J35" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="E37" t="n">
-        <v>534</v>
-      </c>
-      <c r="F37" t="n">
-        <v>565</v>
-      </c>
-      <c r="G37" t="n">
-        <v>595</v>
-      </c>
-      <c r="H37" t="n">
-        <v>626</v>
-      </c>
-      <c r="I37" t="n">
-        <v>659</v>
-      </c>
-      <c r="J37" t="n">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="E40" t="n">
-        <v>132</v>
-      </c>
-      <c r="F40" t="n">
-        <v>126</v>
-      </c>
-      <c r="G40" t="n">
-        <v>126</v>
-      </c>
-      <c r="H40" t="n">
-        <v>126</v>
-      </c>
-      <c r="I40" t="n">
-        <v>126</v>
-      </c>
-      <c r="J40" t="n">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="E42" t="n">
-        <v>50</v>
-      </c>
-      <c r="F42" t="n">
-        <v>45</v>
-      </c>
-      <c r="G42" t="n">
-        <v>45</v>
-      </c>
-      <c r="H42" t="n">
-        <v>45</v>
-      </c>
-      <c r="I42" t="n">
-        <v>45</v>
-      </c>
-      <c r="J42" t="n">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="E43" t="n">
-        <v>352</v>
-      </c>
-      <c r="F43" t="n">
-        <v>394</v>
-      </c>
-      <c r="G43" t="n">
-        <v>424</v>
-      </c>
-      <c r="H43" t="n">
-        <v>455</v>
-      </c>
-      <c r="I43" t="n">
-        <v>488</v>
-      </c>
-      <c r="J43" t="n">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="E45" t="n">
-        <v>534</v>
-      </c>
-      <c r="F45" t="n">
-        <v>565</v>
-      </c>
-      <c r="G45" t="n">
-        <v>595</v>
-      </c>
-      <c r="H45" t="n">
-        <v>626</v>
-      </c>
-      <c r="I45" t="n">
-        <v>659</v>
-      </c>
-      <c r="J45" t="n">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="E47" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" t="n">
-        <v>0</v>
-      </c>
-      <c r="G47" t="n">
-        <v>0</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="E49" t="n">
-        <v>143</v>
-      </c>
-      <c r="F49" t="n">
-        <v>157.5</v>
-      </c>
-      <c r="G49" t="n">
-        <v>172.3</v>
-      </c>
-      <c r="H49" t="n">
-        <v>187.75</v>
-      </c>
-      <c r="I49" t="n">
-        <v>203.5190625</v>
-      </c>
-      <c r="J49" t="n">
-        <v>221.68951890625</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="E50" t="n">
-        <v>50</v>
-      </c>
-      <c r="F50" t="n">
-        <v>52.5</v>
-      </c>
-      <c r="G50" t="n">
-        <v>55.125</v>
-      </c>
-      <c r="H50" t="n">
-        <v>57.88125</v>
-      </c>
-      <c r="I50" t="n">
-        <v>60.7753125</v>
-      </c>
-      <c r="J50" t="n">
-        <v>63.814078125</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="E51" t="n">
-        <v>12</v>
-      </c>
-      <c r="F51" t="n">
-        <v>13</v>
-      </c>
-      <c r="G51" t="n">
-        <v>14</v>
-      </c>
-      <c r="H51" t="n">
-        <v>15</v>
-      </c>
-      <c r="I51" t="n">
-        <v>16</v>
-      </c>
-      <c r="J51" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="E52" t="n">
-        <v>0</v>
-      </c>
-      <c r="F52" t="n">
-        <v>0</v>
-      </c>
-      <c r="G52" t="n">
-        <v>0</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="E54" t="n">
-        <v>181</v>
-      </c>
-      <c r="F54" t="n">
-        <v>193</v>
-      </c>
-      <c r="G54" t="n">
-        <v>211.425</v>
-      </c>
-      <c r="H54" t="n">
-        <v>230.63125</v>
-      </c>
-      <c r="I54" t="n">
-        <v>250.654375</v>
-      </c>
-      <c r="J54" t="n">
-        <v>271.5236015625</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="E57" t="n">
-        <v>181</v>
-      </c>
-      <c r="F57" t="n">
-        <v>193</v>
-      </c>
-      <c r="G57" t="n">
-        <v>211.425</v>
-      </c>
-      <c r="H57" t="n">
-        <v>230.63125</v>
-      </c>
-      <c r="I57" t="n">
-        <v>250.654375</v>
-      </c>
-      <c r="J57" t="n">
-        <v>271.5236015625</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="E59" t="n">
-        <v>181</v>
-      </c>
-      <c r="F59" t="n">
-        <v>193</v>
-      </c>
-      <c r="G59" t="n">
-        <v>211.425</v>
-      </c>
-      <c r="H59" t="n">
-        <v>230.63125</v>
-      </c>
-      <c r="I59" t="n">
-        <v>250.654375</v>
-      </c>
-      <c r="J59" t="n">
-        <v>271.5236015625</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="E60" t="n">
-        <v>50</v>
-      </c>
-      <c r="F60" t="n">
-        <v>50</v>
-      </c>
-      <c r="G60" t="n">
-        <v>50</v>
-      </c>
-      <c r="H60" t="n">
-        <v>50</v>
-      </c>
-      <c r="I60" t="n">
-        <v>50</v>
-      </c>
-      <c r="J60" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="E61" t="n">
-        <v>131</v>
-      </c>
-      <c r="F61" t="n">
-        <v>143</v>
-      </c>
-      <c r="G61" t="n">
-        <v>161.425</v>
-      </c>
-      <c r="H61" t="n">
-        <v>180.63125</v>
-      </c>
-      <c r="I61" t="n">
-        <v>200.654375</v>
-      </c>
-      <c r="J61" t="n">
-        <v>221.5236015625</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="E63" t="n">
-        <v>0</v>
-      </c>
-      <c r="F63" t="n">
-        <v>0</v>
-      </c>
-      <c r="G63" t="n">
-        <v>0</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="E64" t="n">
-        <v>131</v>
-      </c>
-      <c r="F64" t="n">
-        <v>143</v>
-      </c>
-      <c r="G64" t="n">
-        <v>161.425</v>
-      </c>
-      <c r="H64" t="n">
-        <v>180.63125</v>
-      </c>
-      <c r="I64" t="n">
-        <v>200.654375</v>
-      </c>
-      <c r="J64" t="n">
-        <v>221.5236015625</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="12660" yWindow="760" windowWidth="17240" windowHeight="15580" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="800" windowWidth="22340" windowHeight="15580" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Introduction" sheetId="1" state="visible" r:id="rId1"/>
@@ -897,7 +897,7 @@
   </sheetPr>
   <dimension ref="B1:E38"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="B1" zoomScale="156" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="C1" zoomScale="156" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
@@ -910,8 +910,8 @@
     <col width="6.6640625" customWidth="1" style="3" min="4" max="4"/>
     <col width="9.1640625" customWidth="1" style="3" min="5" max="10"/>
     <col width="2.5" customWidth="1" style="3" min="11" max="11"/>
-    <col width="9.1640625" customWidth="1" style="3" min="12" max="26"/>
-    <col width="9.1640625" customWidth="1" style="3" min="27" max="16384"/>
+    <col width="9.1640625" customWidth="1" style="3" min="12" max="27"/>
+    <col width="9.1640625" customWidth="1" style="3" min="28" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customFormat="1" customHeight="1" s="54">
@@ -1047,9 +1047,9 @@
   </sheetPr>
   <dimension ref="C5:J33"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H31" sqref="H31"/>
+      <selection pane="bottomLeft" activeCell="H31" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
@@ -1060,8 +1060,8 @@
     <col width="6.6640625" customWidth="1" style="3" min="4" max="4"/>
     <col width="9.1640625" customWidth="1" style="3" min="5" max="10"/>
     <col width="2.5" customWidth="1" style="3" min="11" max="11"/>
-    <col width="9.1640625" customWidth="1" style="3" min="12" max="26"/>
-    <col width="9.1640625" customWidth="1" style="3" min="27" max="16384"/>
+    <col width="9.1640625" customWidth="1" style="3" min="12" max="27"/>
+    <col width="9.1640625" customWidth="1" style="3" min="28" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customFormat="1" customHeight="1" s="54"/>
@@ -1541,7 +1541,7 @@
       <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C26" sqref="C9:C26"/>
+      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
@@ -1552,8 +1552,8 @@
     <col width="6.6640625" customWidth="1" style="3" min="4" max="4"/>
     <col width="9.1640625" customWidth="1" style="3" min="5" max="10"/>
     <col width="2.5" customWidth="1" style="3" min="11" max="11"/>
-    <col width="9.1640625" customWidth="1" style="3" min="12" max="26"/>
-    <col width="9.1640625" customWidth="1" style="3" min="27" max="16384"/>
+    <col width="9.1640625" customWidth="1" style="3" min="12" max="27"/>
+    <col width="9.1640625" customWidth="1" style="3" min="28" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customFormat="1" customHeight="1" s="54"/>
@@ -1621,7 +1621,9 @@
           <t>Revenue</t>
         </is>
       </c>
-      <c r="E9" s="26" t="n"/>
+      <c r="E9" s="26" t="n">
+        <v>950</v>
+      </c>
       <c r="F9" s="11" t="n"/>
       <c r="G9" s="11" t="n"/>
       <c r="H9" s="11" t="n"/>
@@ -1634,7 +1636,9 @@
           <t>COGS</t>
         </is>
       </c>
-      <c r="E10" s="34" t="n"/>
+      <c r="E10" s="34" t="n">
+        <v>-650</v>
+      </c>
       <c r="F10" s="11" t="n"/>
       <c r="G10" s="11" t="n"/>
       <c r="H10" s="11" t="n"/>
@@ -1648,7 +1652,10 @@
         </is>
       </c>
       <c r="D11" s="10" t="n"/>
-      <c r="E11" s="15" t="n"/>
+      <c r="E11" s="15">
+        <f>E9+E10</f>
+        <v/>
+      </c>
       <c r="F11" s="15" t="n"/>
       <c r="G11" s="15" t="n"/>
       <c r="H11" s="15" t="n"/>
@@ -1662,7 +1669,10 @@
         </is>
       </c>
       <c r="D12" s="16" t="n"/>
-      <c r="E12" s="17" t="n"/>
+      <c r="E12" s="17">
+        <f>E11/E$9</f>
+        <v/>
+      </c>
       <c r="F12" s="17" t="n"/>
       <c r="G12" s="17" t="n"/>
       <c r="H12" s="17" t="n"/>
@@ -1683,7 +1693,9 @@
           <t>SG&amp;A</t>
         </is>
       </c>
-      <c r="E14" s="26" t="n"/>
+      <c r="E14" s="26" t="n">
+        <v>-115</v>
+      </c>
       <c r="F14" s="11" t="n"/>
       <c r="G14" s="11" t="n"/>
       <c r="H14" s="11" t="n"/>
@@ -1696,7 +1708,9 @@
           <t>D&amp;A</t>
         </is>
       </c>
-      <c r="E15" s="34" t="n"/>
+      <c r="E15" s="34" t="n">
+        <v>-50</v>
+      </c>
       <c r="F15" s="11" t="n"/>
       <c r="G15" s="11" t="n"/>
       <c r="H15" s="11" t="n"/>
@@ -1710,7 +1724,10 @@
         </is>
       </c>
       <c r="D16" s="10" t="n"/>
-      <c r="E16" s="15" t="n"/>
+      <c r="E16" s="15">
+        <f>E11+E14+E15</f>
+        <v/>
+      </c>
       <c r="F16" s="15" t="n"/>
       <c r="G16" s="15" t="n"/>
       <c r="H16" s="15" t="n"/>
@@ -1724,7 +1741,10 @@
         </is>
       </c>
       <c r="D17" s="16" t="n"/>
-      <c r="E17" s="17" t="n"/>
+      <c r="E17" s="17">
+        <f>E16/E$9</f>
+        <v/>
+      </c>
       <c r="F17" s="17" t="n"/>
       <c r="G17" s="17" t="n"/>
       <c r="H17" s="17" t="n"/>
@@ -1740,7 +1760,9 @@
           <t>Interest Income</t>
         </is>
       </c>
-      <c r="E19" s="26" t="n"/>
+      <c r="E19" s="26" t="n">
+        <v>0</v>
+      </c>
       <c r="F19" s="6" t="n"/>
       <c r="G19" s="6" t="n"/>
       <c r="H19" s="6" t="n"/>
@@ -1753,7 +1775,9 @@
           <t>Interest Expense</t>
         </is>
       </c>
-      <c r="E20" s="26" t="n"/>
+      <c r="E20" s="26" t="n">
+        <v>-20</v>
+      </c>
       <c r="F20" s="11" t="n"/>
       <c r="G20" s="11" t="n"/>
       <c r="H20" s="11" t="n"/>
@@ -1767,7 +1791,10 @@
         </is>
       </c>
       <c r="D21" s="10" t="n"/>
-      <c r="E21" s="15" t="n"/>
+      <c r="E21" s="15">
+        <f>E16+E19+E20</f>
+        <v/>
+      </c>
       <c r="F21" s="15" t="n"/>
       <c r="G21" s="15" t="n"/>
       <c r="H21" s="15" t="n"/>
@@ -1781,7 +1808,10 @@
         </is>
       </c>
       <c r="D22" s="16" t="n"/>
-      <c r="E22" s="17" t="n"/>
+      <c r="E22" s="17">
+        <f>E21/E$9</f>
+        <v/>
+      </c>
       <c r="F22" s="17" t="n"/>
       <c r="G22" s="17" t="n"/>
       <c r="H22" s="17" t="n"/>
@@ -1802,7 +1832,9 @@
           <t>Tax Expenses</t>
         </is>
       </c>
-      <c r="E24" s="26" t="n"/>
+      <c r="E24" s="26" t="n">
+        <v>-55</v>
+      </c>
       <c r="F24" s="11" t="n"/>
       <c r="G24" s="11" t="n"/>
       <c r="H24" s="11" t="n"/>
@@ -2333,7 +2365,7 @@
   </sheetPr>
   <dimension ref="C5:J82"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
       <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -2348,8 +2380,8 @@
     <col width="6.6640625" bestFit="1" customWidth="1" style="3" min="4" max="4"/>
     <col width="9.1640625" customWidth="1" style="3" min="5" max="10"/>
     <col width="2.5" customWidth="1" style="3" min="11" max="11"/>
-    <col width="9.1640625" customWidth="1" style="3" min="12" max="27"/>
-    <col width="9.1640625" customWidth="1" style="3" min="28" max="16384"/>
+    <col width="9.1640625" customWidth="1" style="3" min="12" max="28"/>
+    <col width="9.1640625" customWidth="1" style="3" min="29" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customFormat="1" customHeight="1" s="54"/>
@@ -2846,7 +2878,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2939,99 +2971,202 @@
       <c r="G4" s="66" t="n"/>
     </row>
     <row r="5" ht="14" customHeight="1">
-      <c r="A5" s="67" t="n"/>
+      <c r="A5" s="67" t="inlineStr">
+        <is>
+          <t>Revenues</t>
+        </is>
+      </c>
       <c r="B5" s="68" t="n"/>
       <c r="C5" s="69" t="n"/>
       <c r="D5" s="69" t="n"/>
-      <c r="E5" s="69" t="n"/>
-      <c r="F5" s="69" t="n"/>
-      <c r="G5" s="69" t="n"/>
+      <c r="E5" s="69" t="n">
+        <v>950</v>
+      </c>
+      <c r="F5" s="69" t="n">
+        <v>950</v>
+      </c>
+      <c r="G5" s="69" t="n">
+        <v>950</v>
+      </c>
+      <c r="H5" t="n">
+        <v>950</v>
+      </c>
+      <c r="I5" t="n">
+        <v>950</v>
+      </c>
     </row>
     <row r="6" ht="14" customHeight="1">
-      <c r="A6" s="67" t="inlineStr">
-        <is>
-          <t>Revenues</t>
-        </is>
+      <c r="A6" s="68" t="inlineStr">
+        <is>
+          <t>COGS</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>650</v>
+      </c>
+      <c r="F6" t="n">
+        <v>650</v>
+      </c>
+      <c r="G6" t="n">
+        <v>650</v>
+      </c>
+      <c r="H6" t="n">
+        <v>650</v>
+      </c>
+      <c r="I6" t="n">
+        <v>650</v>
       </c>
     </row>
     <row r="7" ht="14" customHeight="1">
-      <c r="A7" s="68" t="inlineStr">
-        <is>
-          <t>Cost of Goods Sold</t>
-        </is>
+      <c r="A7" s="70" t="inlineStr">
+        <is>
+          <t>Gross Profit</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>300</v>
+      </c>
+      <c r="F7" t="n">
+        <v>300</v>
+      </c>
+      <c r="G7" t="n">
+        <v>300</v>
+      </c>
+      <c r="H7" t="n">
+        <v>300</v>
+      </c>
+      <c r="I7" t="n">
+        <v>300</v>
       </c>
     </row>
     <row r="8" ht="14" customHeight="1">
-      <c r="A8" s="70" t="inlineStr">
-        <is>
-          <t>Gross Profit</t>
+      <c r="A8" s="68" t="inlineStr">
+        <is>
+          <t>SG&amp;A</t>
         </is>
       </c>
     </row>
     <row r="9" ht="14" customHeight="1">
       <c r="A9" s="68" t="inlineStr">
         <is>
-          <t>% Margin</t>
+          <t>D&amp;A</t>
         </is>
       </c>
     </row>
     <row r="10" ht="14" customHeight="1">
       <c r="A10" s="68" t="inlineStr">
         <is>
-          <t>SG&amp;A</t>
-        </is>
+          <t>Interest Income</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11" ht="14" customHeight="1">
-      <c r="A11" s="68" t="inlineStr">
-        <is>
-          <t>EBIT (Operating Profit)</t>
-        </is>
+      <c r="A11" s="70" t="inlineStr">
+        <is>
+          <t>Interest Expense</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>20</v>
+      </c>
+      <c r="F11" t="n">
+        <v>20</v>
+      </c>
+      <c r="G11" t="n">
+        <v>20</v>
+      </c>
+      <c r="H11" t="n">
+        <v>20</v>
+      </c>
+      <c r="I11" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="12" ht="14" customHeight="1">
       <c r="A12" s="68" t="inlineStr">
         <is>
-          <t>Interest Income</t>
-        </is>
+          <t>Profit Before Tax</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>118.5</v>
+      </c>
+      <c r="F12" t="n">
+        <v>118.5</v>
+      </c>
+      <c r="G12" t="n">
+        <v>118.5</v>
+      </c>
+      <c r="H12" t="n">
+        <v>118.5</v>
+      </c>
+      <c r="I12" t="n">
+        <v>118.5</v>
       </c>
     </row>
     <row r="13" ht="14" customHeight="1">
       <c r="A13" s="70" t="inlineStr">
         <is>
-          <t>Interest Expense</t>
-        </is>
+          <t>Net Income</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>33.18</v>
+      </c>
+      <c r="F13" t="n">
+        <v>33.18</v>
+      </c>
+      <c r="G13" t="n">
+        <v>33.18</v>
+      </c>
+      <c r="H13" t="n">
+        <v>33.18</v>
+      </c>
+      <c r="I13" t="n">
+        <v>33.18</v>
       </c>
     </row>
     <row r="14" ht="14" customHeight="1">
-      <c r="A14" s="68" t="inlineStr">
-        <is>
-          <t>Profit Before Taxes</t>
-        </is>
-      </c>
-    </row>
-    <row r="15" ht="14" customHeight="1">
-      <c r="A15" s="70" t="inlineStr">
-        <is>
-          <t>Tax Expenses</t>
-        </is>
-      </c>
-    </row>
-    <row r="16" ht="14" customHeight="1">
-      <c r="A16" s="68" t="inlineStr">
-        <is>
-          <t>Net Income</t>
-        </is>
-      </c>
-    </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" s="71" t="n"/>
-    </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" s="67" t="n"/>
-    </row>
-    <row r="19" ht="14" customHeight="1">
-      <c r="A19" s="68" t="n"/>
+      <c r="A14" s="68" t="n"/>
+      <c r="E14" t="n">
+        <v>85.31999999999999</v>
+      </c>
+      <c r="F14" t="n">
+        <v>85.31999999999999</v>
+      </c>
+      <c r="G14" t="n">
+        <v>85.31999999999999</v>
+      </c>
+      <c r="H14" t="n">
+        <v>85.31999999999999</v>
+      </c>
+      <c r="I14" t="n">
+        <v>85.31999999999999</v>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" s="71" t="n"/>
+    </row>
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" s="67" t="n"/>
+    </row>
+    <row r="17" ht="14" customHeight="1">
+      <c r="A17" s="68" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ianbaime/Desktop/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{297DF226-0A7F-374A-80A5-ED6D0D08C1E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B721EE97-83AA-194E-8C4A-3D4B1846D90C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="800" windowWidth="22340" windowHeight="15580" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5380" yWindow="760" windowWidth="22340" windowHeight="15580" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="1" r:id="rId1"/>
     <sheet name="Assumptions" sheetId="2" r:id="rId2"/>
     <sheet name="Operating Model" sheetId="3" r:id="rId3"/>
     <sheet name="DCF Model" sheetId="4" r:id="rId4"/>
-    <sheet name="Income Statement" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Assumptions!$B$1:$K$28</definedName>
@@ -43,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="78">
   <si>
     <t>Summary</t>
   </si>
@@ -277,55 +276,13 @@
   </si>
   <si>
     <t xml:space="preserve">Scenario Analysis </t>
-  </si>
-  <si>
-    <t xml:space="preserve">© Corporate Finance Institute. All rights reserved.  </t>
-  </si>
-  <si>
-    <t>Historical --&gt;</t>
-  </si>
-  <si>
-    <t>Forecast --&gt;</t>
-  </si>
-  <si>
-    <t>3 Statement Model</t>
-  </si>
-  <si>
-    <t>USD millions, except per share data</t>
-  </si>
-  <si>
-    <t>Base Year</t>
-  </si>
-  <si>
-    <t>Year 1</t>
-  </si>
-  <si>
-    <t>Year 2</t>
-  </si>
-  <si>
-    <t>Year 3</t>
-  </si>
-  <si>
-    <t>Year 4</t>
-  </si>
-  <si>
-    <t>Year 5</t>
-  </si>
-  <si>
-    <t>Income Statement</t>
-  </si>
-  <si>
-    <t>Revenues</t>
-  </si>
-  <si>
-    <t>Profit Before Tax</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="12">
+  <numFmts count="8">
     <numFmt numFmtId="164" formatCode="#,##0;\(#,##0\);\-"/>
     <numFmt numFmtId="165" formatCode="#,##0.0;\(#,##0.0\);\-"/>
     <numFmt numFmtId="166" formatCode="General&quot;A&quot;"/>
@@ -334,12 +291,8 @@
     <numFmt numFmtId="169" formatCode="0.0%"/>
     <numFmt numFmtId="170" formatCode="#,##0.00;\(#,##0.00\);\-"/>
     <numFmt numFmtId="171" formatCode="0.0\x;\(0.0\x\)"/>
-    <numFmt numFmtId="172" formatCode="_-* #,##0_-;\(#,##0\)_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="173" formatCode="0&quot;A&quot;"/>
-    <numFmt numFmtId="174" formatCode="0&quot;E&quot;"/>
-    <numFmt numFmtId="175" formatCode="#,##0_);\(#,##0\);\-"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -436,59 +389,8 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="8"/>
-      <color theme="0"/>
-      <name val="Arial Narrow"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial Narrow"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial Narrow"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial Narrow"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="10"/>
-      <color theme="0"/>
-      <name val="Arial Narrow"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="0"/>
-      <name val="Arial Narrow"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Arial Narrow"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Arial Narrow"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="7">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -507,26 +409,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF132E57"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF1E8496"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFED942D"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -591,21 +475,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -775,42 +650,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="37" fontId="16" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="37" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="37" fontId="17" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="172" fontId="19" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="173" fontId="20" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="174" fontId="20" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="37" fontId="20" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="20" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="175" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1147,8 +986,8 @@
     <col min="4" max="4" width="6.6640625" style="3" customWidth="1"/>
     <col min="5" max="10" width="9.1640625" style="3" customWidth="1"/>
     <col min="11" max="11" width="2.5" style="3" customWidth="1"/>
-    <col min="12" max="31" width="9.1640625" style="3" customWidth="1"/>
-    <col min="32" max="16384" width="9.1640625" style="3"/>
+    <col min="12" max="33" width="9.1640625" style="3" customWidth="1"/>
+    <col min="34" max="16384" width="9.1640625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:4" s="54" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1277,8 +1116,8 @@
     <col min="4" max="4" width="6.6640625" style="3" customWidth="1"/>
     <col min="5" max="10" width="9.1640625" style="3" customWidth="1"/>
     <col min="11" max="11" width="2.5" style="3" customWidth="1"/>
-    <col min="12" max="31" width="9.1640625" style="3" customWidth="1"/>
-    <col min="32" max="16384" width="9.1640625" style="3"/>
+    <col min="12" max="33" width="9.1640625" style="3" customWidth="1"/>
+    <col min="34" max="16384" width="9.1640625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:10" s="54" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1718,11 +1557,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="C1:J74"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
       <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomRight" activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1733,8 +1572,8 @@
     <col min="4" max="4" width="6.6640625" style="3" customWidth="1"/>
     <col min="5" max="10" width="9.1640625" style="3" customWidth="1"/>
     <col min="11" max="11" width="2.5" style="3" customWidth="1"/>
-    <col min="12" max="31" width="9.1640625" style="3" customWidth="1"/>
-    <col min="32" max="16384" width="9.1640625" style="3"/>
+    <col min="12" max="33" width="9.1640625" style="3" customWidth="1"/>
+    <col min="34" max="16384" width="9.1640625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:10" s="54" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2452,7 +2291,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="C1:J82"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
       <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -2467,8 +2306,8 @@
     <col min="4" max="4" width="6.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="10" width="9.1640625" style="3" customWidth="1"/>
     <col min="11" max="11" width="2.5" style="3" customWidth="1"/>
-    <col min="12" max="32" width="9.1640625" style="3" customWidth="1"/>
-    <col min="33" max="16384" width="9.1640625" style="3"/>
+    <col min="12" max="34" width="9.1640625" style="3" customWidth="1"/>
+    <col min="35" max="16384" width="9.1640625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:10" s="54" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2907,289 +2746,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="84" orientation="portrait"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:I17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="57" t="s">
-        <v>78</v>
-      </c>
-      <c r="B1" s="58" t="s">
-        <v>79</v>
-      </c>
-      <c r="C1" s="59" t="s">
-        <v>80</v>
-      </c>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-    </row>
-    <row r="2" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="61" t="s">
-        <v>81</v>
-      </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-    </row>
-    <row r="3" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="62" t="s">
-        <v>82</v>
-      </c>
-      <c r="B3" s="63" t="s">
-        <v>83</v>
-      </c>
-      <c r="C3" s="64" t="s">
-        <v>84</v>
-      </c>
-      <c r="D3" s="64" t="s">
-        <v>85</v>
-      </c>
-      <c r="E3" s="64" t="s">
-        <v>86</v>
-      </c>
-      <c r="F3" s="64" t="s">
-        <v>87</v>
-      </c>
-      <c r="G3" s="64" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="65" t="s">
-        <v>89</v>
-      </c>
-      <c r="B4" s="65"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-    </row>
-    <row r="5" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="67" t="s">
-        <v>90</v>
-      </c>
-      <c r="B5" s="68"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69">
-        <v>950</v>
-      </c>
-      <c r="F5" s="69">
-        <v>997.5</v>
-      </c>
-      <c r="G5" s="69">
-        <v>1047.375</v>
-      </c>
-      <c r="H5">
-        <v>1099.7437500000001</v>
-      </c>
-      <c r="I5">
-        <v>1154.7309375</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="68" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6">
-        <v>-650</v>
-      </c>
-      <c r="F6">
-        <v>-650.97500000000002</v>
-      </c>
-      <c r="G6">
-        <v>-651.95146250000016</v>
-      </c>
-      <c r="H6">
-        <v>-652.92938969375007</v>
-      </c>
-      <c r="I6">
-        <v>-653.90878377829074</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="70" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7">
-        <v>300</v>
-      </c>
-      <c r="F7">
-        <v>1648.4749999999999</v>
-      </c>
-      <c r="G7">
-        <v>1699.3264624999999</v>
-      </c>
-      <c r="H7">
-        <v>1752.67313969375</v>
-      </c>
-      <c r="I7">
-        <v>1808.6397212782911</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="68" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8">
-        <v>-115</v>
-      </c>
-      <c r="F8">
-        <v>-119.7</v>
-      </c>
-      <c r="G8">
-        <v>-125.685</v>
-      </c>
-      <c r="H8">
-        <v>-131.96924999999999</v>
-      </c>
-      <c r="I8">
-        <v>-138.5677125</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="68" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9">
-        <v>-50</v>
-      </c>
-      <c r="F9">
-        <v>-49.875</v>
-      </c>
-      <c r="G9">
-        <v>-52.368750000000013</v>
-      </c>
-      <c r="H9">
-        <v>-54.987187499999997</v>
-      </c>
-      <c r="I9">
-        <v>-57.736546875000023</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="68" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="70" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11">
-        <v>-20</v>
-      </c>
-      <c r="F11">
-        <v>-20</v>
-      </c>
-      <c r="G11">
-        <v>-20</v>
-      </c>
-      <c r="H11">
-        <v>-20</v>
-      </c>
-      <c r="I11">
-        <v>-20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="68" t="s">
-        <v>91</v>
-      </c>
-      <c r="E12">
-        <v>115</v>
-      </c>
-      <c r="F12">
-        <v>1798.05</v>
-      </c>
-      <c r="G12">
-        <v>1857.3802125</v>
-      </c>
-      <c r="H12">
-        <v>1919.62957719375</v>
-      </c>
-      <c r="I12">
-        <v>1984.943980653291</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="70" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13">
-        <v>-55</v>
-      </c>
-      <c r="F13">
-        <v>503.45400000000001</v>
-      </c>
-      <c r="G13">
-        <v>520.06645950000006</v>
-      </c>
-      <c r="H13">
-        <v>537.49628161425017</v>
-      </c>
-      <c r="I13">
-        <v>555.78431458292141</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="68"/>
-      <c r="E14">
-        <v>60</v>
-      </c>
-      <c r="F14">
-        <v>2301.5039999999999</v>
-      </c>
-      <c r="G14">
-        <v>2377.446672</v>
-      </c>
-      <c r="H14">
-        <v>2457.125858808</v>
-      </c>
-      <c r="I14">
-        <v>2540.7282952362102</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="71"/>
-    </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="67"/>
-    </row>
-    <row r="17" spans="1:1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="68"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>